--- a/excellProcessors/risksFileProcessor/src/main/resources/risks_template.xlsx
+++ b/excellProcessors/risksFileProcessor/src/main/resources/risks_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Project Risks</t>
   </si>
@@ -47,23 +47,7 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>Risk ID</t>
-  </si>
-  <si>
-    <t>Risk Description</t>
-  </si>
-  <si>
-    <t>Impact Description</t>
-  </si>
-  <si>
-    <t>Business Impact Value</t>
-  </si>
-  <si>
     <t>Risk Response</t>
-  </si>
-  <si>
-    <t>Mitigation action /
-Last chance corrective action</t>
   </si>
   <si>
     <t>Decision date
@@ -77,9 +61,6 @@
   </si>
   <si>
     <t>Responsible</t>
-  </si>
-  <si>
-    <t>Related Action</t>
   </si>
   <si>
     <t>Target
@@ -97,13 +78,27 @@
 dd-month-yy</t>
   </si>
   <si>
-    <t>Report</t>
+    <t>Reference</t>
   </si>
   <si>
-    <t>Strategic/roadmap</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>Execution/Budget</t>
+    <t>Description &amp; Impact Statement</t>
+  </si>
+  <si>
+    <t>Business Impact</t>
+  </si>
+  <si>
+    <t>Mitigation Plan Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported On
+</t>
   </si>
 </sst>
 </file>
@@ -113,13 +108,13 @@
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$€]* #,##0.00_-;\-[$€]* #,##0.00_-;_-[$€]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$€]* #,##0.00_-;\-[$€]* #,##0.00_-;_-[$€]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,21 +354,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="FuturaA Book BT"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="FuturaA Book BT"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="FuturaA Book BT"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
@@ -498,12 +478,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="54">
@@ -794,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -956,28 +930,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1075,32 +1029,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1825,8 +1753,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1838,7 +1766,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1860,20 +1788,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1886,8 +1814,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2212,42 +2140,42 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="863" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="863"/>
@@ -2256,32 +2184,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="863" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="863" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="863" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="863" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="863" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="863" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="863" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="16" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="16" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="863" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="16" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="14" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="27" borderId="14" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -2300,39 +2206,15 @@
     <xf numFmtId="0" fontId="37" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="863" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="34" fillId="0" borderId="0" xfId="863" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="34" fillId="0" borderId="0" xfId="863" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="863" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="863" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="863" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="37" fillId="27" borderId="13" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="37" fillId="27" borderId="13" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="39" fillId="27" borderId="16" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="39" fillId="27" borderId="16" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="39" fillId="27" borderId="13" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="39" fillId="27" borderId="13" xfId="863" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="25" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="26" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="25" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="34" fillId="0" borderId="15" xfId="863" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="14" xfId="863" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -2342,13 +2224,6 @@
     <xf numFmtId="0" fontId="37" fillId="27" borderId="13" xfId="863" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" xfId="863" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="863" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2356,11 +2231,17 @@
     <xf numFmtId="15" fontId="34" fillId="0" borderId="0" xfId="863" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="863" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="863" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" xfId="863" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="863" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="863" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1132">
@@ -3497,71 +3378,7 @@
     <cellStyle name="Vérification 2 2" xfId="1096"/>
     <cellStyle name="Vérification de cellule" xfId="1097"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3862,17 +3679,17 @@
   <sheetPr codeName="Feuil5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T618"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="3.875" style="2" customWidth="1"/>
     <col min="7" max="8" width="25.5" style="2" customWidth="1"/>
@@ -3882,14 +3699,12 @@
     <col min="12" max="13" width="10.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="7.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="25" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="25" customWidth="1"/>
-    <col min="20" max="20" width="5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8" style="2"/>
-    <col min="22" max="22" width="20.5" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8" style="2"/>
+    <col min="16" max="16" width="10.125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.25" style="16" customWidth="1"/>
+    <col min="19" max="19" width="11.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18">
@@ -3898,24 +3713,22 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
@@ -3931,458 +3744,2509 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" s="4" customFormat="1" ht="3.75" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="98.25">
-      <c r="A5" s="18" t="s">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="72.75">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="K5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="N5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="O5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="P5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="Q5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="R5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="11.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="11.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="40"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="40"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="40"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+    <row r="6" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="17" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="19" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="20" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="21" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="22" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="23" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="24" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="25" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="26" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="27" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="28" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="29" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="30" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="31" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="32" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="33" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="34" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="35" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="36" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="37" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="38" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="39" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="40" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="41" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="42" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="43" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="44" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="45" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="46" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="47" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="48" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="49" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="50" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="51" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="52" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="53" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="54" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="55" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="56" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="57" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="58" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="59" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="60" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="61" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="62" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="63" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="64" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="65" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="66" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="67" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="68" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="69" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="70" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="71" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="72" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="73" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="74" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="75" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="76" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="77" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="78" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="79" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="80" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="81" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="82" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="83" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="84" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="85" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="86" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="87" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="88" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="89" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="90" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="91" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="92" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="93" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="94" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="95" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="96" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="97" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="98" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="99" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="100" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="101" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="102" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="103" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="104" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="105" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="106" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="107" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="108" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="109" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="110" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="111" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="112" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="113" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="114" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="115" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="116" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="117" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="118" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="119" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="120" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="121" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="122" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="123" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="124" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="125" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="126" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="127" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="128" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="129" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="130" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="131" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="132" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="133" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="134" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="135" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="136" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="137" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="138" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="139" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="140" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="141" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="142" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="143" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="144" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="145" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="146" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="147" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="148" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="149" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="150" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="151" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="152" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="153" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="154" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="155" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="156" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="157" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="158" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="159" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="160" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="161" spans="16:18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="162" spans="16:18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="163" spans="16:18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="164" spans="16:18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="165" spans="16:18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="166" spans="16:18" s="28" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="167" spans="16:18" s="30" customFormat="1">
+      <c r="P167" s="29"/>
+      <c r="Q167" s="29"/>
+      <c r="R167" s="29"/>
+    </row>
+    <row r="168" spans="16:18" s="30" customFormat="1">
+      <c r="P168" s="29"/>
+      <c r="Q168" s="29"/>
+      <c r="R168" s="29"/>
+    </row>
+    <row r="169" spans="16:18" s="30" customFormat="1">
+      <c r="P169" s="29"/>
+      <c r="Q169" s="29"/>
+      <c r="R169" s="29"/>
+    </row>
+    <row r="170" spans="16:18" s="30" customFormat="1">
+      <c r="P170" s="29"/>
+      <c r="Q170" s="29"/>
+      <c r="R170" s="29"/>
+    </row>
+    <row r="171" spans="16:18" s="30" customFormat="1">
+      <c r="P171" s="29"/>
+      <c r="Q171" s="29"/>
+      <c r="R171" s="29"/>
+    </row>
+    <row r="172" spans="16:18" s="30" customFormat="1">
+      <c r="P172" s="29"/>
+      <c r="Q172" s="29"/>
+      <c r="R172" s="29"/>
+    </row>
+    <row r="173" spans="16:18" s="30" customFormat="1">
+      <c r="P173" s="29"/>
+      <c r="Q173" s="29"/>
+      <c r="R173" s="29"/>
+    </row>
+    <row r="174" spans="16:18" s="30" customFormat="1">
+      <c r="P174" s="29"/>
+      <c r="Q174" s="29"/>
+      <c r="R174" s="29"/>
+    </row>
+    <row r="175" spans="16:18" s="30" customFormat="1">
+      <c r="P175" s="29"/>
+      <c r="Q175" s="29"/>
+      <c r="R175" s="29"/>
+    </row>
+    <row r="176" spans="16:18" s="30" customFormat="1">
+      <c r="P176" s="29"/>
+      <c r="Q176" s="29"/>
+      <c r="R176" s="29"/>
+    </row>
+    <row r="177" spans="16:18" s="30" customFormat="1">
+      <c r="P177" s="29"/>
+      <c r="Q177" s="29"/>
+      <c r="R177" s="29"/>
+    </row>
+    <row r="178" spans="16:18" s="30" customFormat="1">
+      <c r="P178" s="29"/>
+      <c r="Q178" s="29"/>
+      <c r="R178" s="29"/>
+    </row>
+    <row r="179" spans="16:18" s="30" customFormat="1">
+      <c r="P179" s="29"/>
+      <c r="Q179" s="29"/>
+      <c r="R179" s="29"/>
+    </row>
+    <row r="180" spans="16:18" s="30" customFormat="1">
+      <c r="P180" s="29"/>
+      <c r="Q180" s="29"/>
+      <c r="R180" s="29"/>
+    </row>
+    <row r="181" spans="16:18" s="30" customFormat="1">
+      <c r="P181" s="29"/>
+      <c r="Q181" s="29"/>
+      <c r="R181" s="29"/>
+    </row>
+    <row r="182" spans="16:18" s="30" customFormat="1">
+      <c r="P182" s="29"/>
+      <c r="Q182" s="29"/>
+      <c r="R182" s="29"/>
+    </row>
+    <row r="183" spans="16:18" s="30" customFormat="1">
+      <c r="P183" s="29"/>
+      <c r="Q183" s="29"/>
+      <c r="R183" s="29"/>
+    </row>
+    <row r="184" spans="16:18" s="30" customFormat="1">
+      <c r="P184" s="29"/>
+      <c r="Q184" s="29"/>
+      <c r="R184" s="29"/>
+    </row>
+    <row r="185" spans="16:18" s="30" customFormat="1">
+      <c r="P185" s="29"/>
+      <c r="Q185" s="29"/>
+      <c r="R185" s="29"/>
+    </row>
+    <row r="186" spans="16:18" s="30" customFormat="1">
+      <c r="P186" s="29"/>
+      <c r="Q186" s="29"/>
+      <c r="R186" s="29"/>
+    </row>
+    <row r="187" spans="16:18" s="30" customFormat="1">
+      <c r="P187" s="29"/>
+      <c r="Q187" s="29"/>
+      <c r="R187" s="29"/>
+    </row>
+    <row r="188" spans="16:18" s="30" customFormat="1">
+      <c r="P188" s="29"/>
+      <c r="Q188" s="29"/>
+      <c r="R188" s="29"/>
+    </row>
+    <row r="189" spans="16:18" s="30" customFormat="1">
+      <c r="P189" s="29"/>
+      <c r="Q189" s="29"/>
+      <c r="R189" s="29"/>
+    </row>
+    <row r="190" spans="16:18" s="30" customFormat="1">
+      <c r="P190" s="29"/>
+      <c r="Q190" s="29"/>
+      <c r="R190" s="29"/>
+    </row>
+    <row r="191" spans="16:18" s="30" customFormat="1">
+      <c r="P191" s="29"/>
+      <c r="Q191" s="29"/>
+      <c r="R191" s="29"/>
+    </row>
+    <row r="192" spans="16:18" s="30" customFormat="1">
+      <c r="P192" s="29"/>
+      <c r="Q192" s="29"/>
+      <c r="R192" s="29"/>
+    </row>
+    <row r="193" spans="16:18" s="30" customFormat="1">
+      <c r="P193" s="29"/>
+      <c r="Q193" s="29"/>
+      <c r="R193" s="29"/>
+    </row>
+    <row r="194" spans="16:18" s="30" customFormat="1">
+      <c r="P194" s="29"/>
+      <c r="Q194" s="29"/>
+      <c r="R194" s="29"/>
+    </row>
+    <row r="195" spans="16:18" s="30" customFormat="1">
+      <c r="P195" s="29"/>
+      <c r="Q195" s="29"/>
+      <c r="R195" s="29"/>
+    </row>
+    <row r="196" spans="16:18" s="30" customFormat="1">
+      <c r="P196" s="29"/>
+      <c r="Q196" s="29"/>
+      <c r="R196" s="29"/>
+    </row>
+    <row r="197" spans="16:18" s="30" customFormat="1">
+      <c r="P197" s="29"/>
+      <c r="Q197" s="29"/>
+      <c r="R197" s="29"/>
+    </row>
+    <row r="198" spans="16:18" s="30" customFormat="1">
+      <c r="P198" s="29"/>
+      <c r="Q198" s="29"/>
+      <c r="R198" s="29"/>
+    </row>
+    <row r="199" spans="16:18" s="30" customFormat="1">
+      <c r="P199" s="29"/>
+      <c r="Q199" s="29"/>
+      <c r="R199" s="29"/>
+    </row>
+    <row r="200" spans="16:18" s="30" customFormat="1">
+      <c r="P200" s="29"/>
+      <c r="Q200" s="29"/>
+      <c r="R200" s="29"/>
+    </row>
+    <row r="201" spans="16:18" s="30" customFormat="1">
+      <c r="P201" s="29"/>
+      <c r="Q201" s="29"/>
+      <c r="R201" s="29"/>
+    </row>
+    <row r="202" spans="16:18" s="30" customFormat="1">
+      <c r="P202" s="29"/>
+      <c r="Q202" s="29"/>
+      <c r="R202" s="29"/>
+    </row>
+    <row r="203" spans="16:18" s="30" customFormat="1">
+      <c r="P203" s="29"/>
+      <c r="Q203" s="29"/>
+      <c r="R203" s="29"/>
+    </row>
+    <row r="204" spans="16:18" s="30" customFormat="1">
+      <c r="P204" s="29"/>
+      <c r="Q204" s="29"/>
+      <c r="R204" s="29"/>
+    </row>
+    <row r="205" spans="16:18" s="30" customFormat="1">
+      <c r="P205" s="29"/>
+      <c r="Q205" s="29"/>
+      <c r="R205" s="29"/>
+    </row>
+    <row r="206" spans="16:18" s="30" customFormat="1">
+      <c r="P206" s="29"/>
+      <c r="Q206" s="29"/>
+      <c r="R206" s="29"/>
+    </row>
+    <row r="207" spans="16:18" s="30" customFormat="1">
+      <c r="P207" s="29"/>
+      <c r="Q207" s="29"/>
+      <c r="R207" s="29"/>
+    </row>
+    <row r="208" spans="16:18" s="30" customFormat="1">
+      <c r="P208" s="29"/>
+      <c r="Q208" s="29"/>
+      <c r="R208" s="29"/>
+    </row>
+    <row r="209" spans="16:18" s="30" customFormat="1">
+      <c r="P209" s="29"/>
+      <c r="Q209" s="29"/>
+      <c r="R209" s="29"/>
+    </row>
+    <row r="210" spans="16:18" s="30" customFormat="1">
+      <c r="P210" s="29"/>
+      <c r="Q210" s="29"/>
+      <c r="R210" s="29"/>
+    </row>
+    <row r="211" spans="16:18" s="30" customFormat="1">
+      <c r="P211" s="29"/>
+      <c r="Q211" s="29"/>
+      <c r="R211" s="29"/>
+    </row>
+    <row r="212" spans="16:18" s="30" customFormat="1">
+      <c r="P212" s="29"/>
+      <c r="Q212" s="29"/>
+      <c r="R212" s="29"/>
+    </row>
+    <row r="213" spans="16:18" s="30" customFormat="1">
+      <c r="P213" s="29"/>
+      <c r="Q213" s="29"/>
+      <c r="R213" s="29"/>
+    </row>
+    <row r="214" spans="16:18" s="30" customFormat="1">
+      <c r="P214" s="29"/>
+      <c r="Q214" s="29"/>
+      <c r="R214" s="29"/>
+    </row>
+    <row r="215" spans="16:18" s="30" customFormat="1">
+      <c r="P215" s="29"/>
+      <c r="Q215" s="29"/>
+      <c r="R215" s="29"/>
+    </row>
+    <row r="216" spans="16:18" s="30" customFormat="1">
+      <c r="P216" s="29"/>
+      <c r="Q216" s="29"/>
+      <c r="R216" s="29"/>
+    </row>
+    <row r="217" spans="16:18" s="30" customFormat="1">
+      <c r="P217" s="29"/>
+      <c r="Q217" s="29"/>
+      <c r="R217" s="29"/>
+    </row>
+    <row r="218" spans="16:18" s="30" customFormat="1">
+      <c r="P218" s="29"/>
+      <c r="Q218" s="29"/>
+      <c r="R218" s="29"/>
+    </row>
+    <row r="219" spans="16:18" s="30" customFormat="1">
+      <c r="P219" s="29"/>
+      <c r="Q219" s="29"/>
+      <c r="R219" s="29"/>
+    </row>
+    <row r="220" spans="16:18" s="30" customFormat="1">
+      <c r="P220" s="29"/>
+      <c r="Q220" s="29"/>
+      <c r="R220" s="29"/>
+    </row>
+    <row r="221" spans="16:18" s="30" customFormat="1">
+      <c r="P221" s="29"/>
+      <c r="Q221" s="29"/>
+      <c r="R221" s="29"/>
+    </row>
+    <row r="222" spans="16:18" s="30" customFormat="1">
+      <c r="P222" s="29"/>
+      <c r="Q222" s="29"/>
+      <c r="R222" s="29"/>
+    </row>
+    <row r="223" spans="16:18" s="30" customFormat="1">
+      <c r="P223" s="29"/>
+      <c r="Q223" s="29"/>
+      <c r="R223" s="29"/>
+    </row>
+    <row r="224" spans="16:18" s="30" customFormat="1">
+      <c r="P224" s="29"/>
+      <c r="Q224" s="29"/>
+      <c r="R224" s="29"/>
+    </row>
+    <row r="225" spans="16:18" s="30" customFormat="1">
+      <c r="P225" s="29"/>
+      <c r="Q225" s="29"/>
+      <c r="R225" s="29"/>
+    </row>
+    <row r="226" spans="16:18" s="30" customFormat="1">
+      <c r="P226" s="29"/>
+      <c r="Q226" s="29"/>
+      <c r="R226" s="29"/>
+    </row>
+    <row r="227" spans="16:18" s="30" customFormat="1">
+      <c r="P227" s="29"/>
+      <c r="Q227" s="29"/>
+      <c r="R227" s="29"/>
+    </row>
+    <row r="228" spans="16:18" s="30" customFormat="1">
+      <c r="P228" s="29"/>
+      <c r="Q228" s="29"/>
+      <c r="R228" s="29"/>
+    </row>
+    <row r="229" spans="16:18" s="30" customFormat="1">
+      <c r="P229" s="29"/>
+      <c r="Q229" s="29"/>
+      <c r="R229" s="29"/>
+    </row>
+    <row r="230" spans="16:18" s="30" customFormat="1">
+      <c r="P230" s="29"/>
+      <c r="Q230" s="29"/>
+      <c r="R230" s="29"/>
+    </row>
+    <row r="231" spans="16:18" s="30" customFormat="1">
+      <c r="P231" s="29"/>
+      <c r="Q231" s="29"/>
+      <c r="R231" s="29"/>
+    </row>
+    <row r="232" spans="16:18" s="30" customFormat="1">
+      <c r="P232" s="29"/>
+      <c r="Q232" s="29"/>
+      <c r="R232" s="29"/>
+    </row>
+    <row r="233" spans="16:18" s="30" customFormat="1">
+      <c r="P233" s="29"/>
+      <c r="Q233" s="29"/>
+      <c r="R233" s="29"/>
+    </row>
+    <row r="234" spans="16:18" s="30" customFormat="1">
+      <c r="P234" s="29"/>
+      <c r="Q234" s="29"/>
+      <c r="R234" s="29"/>
+    </row>
+    <row r="235" spans="16:18" s="30" customFormat="1">
+      <c r="P235" s="29"/>
+      <c r="Q235" s="29"/>
+      <c r="R235" s="29"/>
+    </row>
+    <row r="236" spans="16:18" s="30" customFormat="1">
+      <c r="P236" s="29"/>
+      <c r="Q236" s="29"/>
+      <c r="R236" s="29"/>
+    </row>
+    <row r="237" spans="16:18" s="30" customFormat="1">
+      <c r="P237" s="29"/>
+      <c r="Q237" s="29"/>
+      <c r="R237" s="29"/>
+    </row>
+    <row r="238" spans="16:18" s="30" customFormat="1">
+      <c r="P238" s="29"/>
+      <c r="Q238" s="29"/>
+      <c r="R238" s="29"/>
+    </row>
+    <row r="239" spans="16:18" s="30" customFormat="1">
+      <c r="P239" s="29"/>
+      <c r="Q239" s="29"/>
+      <c r="R239" s="29"/>
+    </row>
+    <row r="240" spans="16:18" s="30" customFormat="1">
+      <c r="P240" s="29"/>
+      <c r="Q240" s="29"/>
+      <c r="R240" s="29"/>
+    </row>
+    <row r="241" spans="16:18" s="30" customFormat="1">
+      <c r="P241" s="29"/>
+      <c r="Q241" s="29"/>
+      <c r="R241" s="29"/>
+    </row>
+    <row r="242" spans="16:18" s="30" customFormat="1">
+      <c r="P242" s="29"/>
+      <c r="Q242" s="29"/>
+      <c r="R242" s="29"/>
+    </row>
+    <row r="243" spans="16:18" s="30" customFormat="1">
+      <c r="P243" s="29"/>
+      <c r="Q243" s="29"/>
+      <c r="R243" s="29"/>
+    </row>
+    <row r="244" spans="16:18" s="30" customFormat="1">
+      <c r="P244" s="29"/>
+      <c r="Q244" s="29"/>
+      <c r="R244" s="29"/>
+    </row>
+    <row r="245" spans="16:18" s="30" customFormat="1">
+      <c r="P245" s="29"/>
+      <c r="Q245" s="29"/>
+      <c r="R245" s="29"/>
+    </row>
+    <row r="246" spans="16:18" s="30" customFormat="1">
+      <c r="P246" s="29"/>
+      <c r="Q246" s="29"/>
+      <c r="R246" s="29"/>
+    </row>
+    <row r="247" spans="16:18" s="30" customFormat="1">
+      <c r="P247" s="29"/>
+      <c r="Q247" s="29"/>
+      <c r="R247" s="29"/>
+    </row>
+    <row r="248" spans="16:18" s="30" customFormat="1">
+      <c r="P248" s="29"/>
+      <c r="Q248" s="29"/>
+      <c r="R248" s="29"/>
+    </row>
+    <row r="249" spans="16:18" s="30" customFormat="1">
+      <c r="P249" s="29"/>
+      <c r="Q249" s="29"/>
+      <c r="R249" s="29"/>
+    </row>
+    <row r="250" spans="16:18" s="30" customFormat="1">
+      <c r="P250" s="29"/>
+      <c r="Q250" s="29"/>
+      <c r="R250" s="29"/>
+    </row>
+    <row r="251" spans="16:18" s="30" customFormat="1">
+      <c r="P251" s="29"/>
+      <c r="Q251" s="29"/>
+      <c r="R251" s="29"/>
+    </row>
+    <row r="252" spans="16:18" s="30" customFormat="1">
+      <c r="P252" s="29"/>
+      <c r="Q252" s="29"/>
+      <c r="R252" s="29"/>
+    </row>
+    <row r="253" spans="16:18" s="30" customFormat="1">
+      <c r="P253" s="29"/>
+      <c r="Q253" s="29"/>
+      <c r="R253" s="29"/>
+    </row>
+    <row r="254" spans="16:18" s="30" customFormat="1">
+      <c r="P254" s="29"/>
+      <c r="Q254" s="29"/>
+      <c r="R254" s="29"/>
+    </row>
+    <row r="255" spans="16:18" s="30" customFormat="1">
+      <c r="P255" s="29"/>
+      <c r="Q255" s="29"/>
+      <c r="R255" s="29"/>
+    </row>
+    <row r="256" spans="16:18" s="30" customFormat="1">
+      <c r="P256" s="29"/>
+      <c r="Q256" s="29"/>
+      <c r="R256" s="29"/>
+    </row>
+    <row r="257" spans="16:18" s="30" customFormat="1">
+      <c r="P257" s="29"/>
+      <c r="Q257" s="29"/>
+      <c r="R257" s="29"/>
+    </row>
+    <row r="258" spans="16:18" s="30" customFormat="1">
+      <c r="P258" s="29"/>
+      <c r="Q258" s="29"/>
+      <c r="R258" s="29"/>
+    </row>
+    <row r="259" spans="16:18" s="30" customFormat="1">
+      <c r="P259" s="29"/>
+      <c r="Q259" s="29"/>
+      <c r="R259" s="29"/>
+    </row>
+    <row r="260" spans="16:18" s="30" customFormat="1">
+      <c r="P260" s="29"/>
+      <c r="Q260" s="29"/>
+      <c r="R260" s="29"/>
+    </row>
+    <row r="261" spans="16:18" s="30" customFormat="1">
+      <c r="P261" s="29"/>
+      <c r="Q261" s="29"/>
+      <c r="R261" s="29"/>
+    </row>
+    <row r="262" spans="16:18" s="30" customFormat="1">
+      <c r="P262" s="29"/>
+      <c r="Q262" s="29"/>
+      <c r="R262" s="29"/>
+    </row>
+    <row r="263" spans="16:18" s="30" customFormat="1">
+      <c r="P263" s="29"/>
+      <c r="Q263" s="29"/>
+      <c r="R263" s="29"/>
+    </row>
+    <row r="264" spans="16:18" s="30" customFormat="1">
+      <c r="P264" s="29"/>
+      <c r="Q264" s="29"/>
+      <c r="R264" s="29"/>
+    </row>
+    <row r="265" spans="16:18" s="30" customFormat="1">
+      <c r="P265" s="29"/>
+      <c r="Q265" s="29"/>
+      <c r="R265" s="29"/>
+    </row>
+    <row r="266" spans="16:18" s="30" customFormat="1">
+      <c r="P266" s="29"/>
+      <c r="Q266" s="29"/>
+      <c r="R266" s="29"/>
+    </row>
+    <row r="267" spans="16:18" s="30" customFormat="1">
+      <c r="P267" s="29"/>
+      <c r="Q267" s="29"/>
+      <c r="R267" s="29"/>
+    </row>
+    <row r="268" spans="16:18" s="30" customFormat="1">
+      <c r="P268" s="29"/>
+      <c r="Q268" s="29"/>
+      <c r="R268" s="29"/>
+    </row>
+    <row r="269" spans="16:18" s="30" customFormat="1">
+      <c r="P269" s="29"/>
+      <c r="Q269" s="29"/>
+      <c r="R269" s="29"/>
+    </row>
+    <row r="270" spans="16:18" s="30" customFormat="1">
+      <c r="P270" s="29"/>
+      <c r="Q270" s="29"/>
+      <c r="R270" s="29"/>
+    </row>
+    <row r="271" spans="16:18" s="30" customFormat="1">
+      <c r="P271" s="29"/>
+      <c r="Q271" s="29"/>
+      <c r="R271" s="29"/>
+    </row>
+    <row r="272" spans="16:18" s="30" customFormat="1">
+      <c r="P272" s="29"/>
+      <c r="Q272" s="29"/>
+      <c r="R272" s="29"/>
+    </row>
+    <row r="273" spans="16:18" s="30" customFormat="1">
+      <c r="P273" s="29"/>
+      <c r="Q273" s="29"/>
+      <c r="R273" s="29"/>
+    </row>
+    <row r="274" spans="16:18" s="30" customFormat="1">
+      <c r="P274" s="29"/>
+      <c r="Q274" s="29"/>
+      <c r="R274" s="29"/>
+    </row>
+    <row r="275" spans="16:18" s="30" customFormat="1">
+      <c r="P275" s="29"/>
+      <c r="Q275" s="29"/>
+      <c r="R275" s="29"/>
+    </row>
+    <row r="276" spans="16:18" s="30" customFormat="1">
+      <c r="P276" s="29"/>
+      <c r="Q276" s="29"/>
+      <c r="R276" s="29"/>
+    </row>
+    <row r="277" spans="16:18" s="30" customFormat="1">
+      <c r="P277" s="29"/>
+      <c r="Q277" s="29"/>
+      <c r="R277" s="29"/>
+    </row>
+    <row r="278" spans="16:18" s="30" customFormat="1">
+      <c r="P278" s="29"/>
+      <c r="Q278" s="29"/>
+      <c r="R278" s="29"/>
+    </row>
+    <row r="279" spans="16:18" s="30" customFormat="1">
+      <c r="P279" s="29"/>
+      <c r="Q279" s="29"/>
+      <c r="R279" s="29"/>
+    </row>
+    <row r="280" spans="16:18" s="30" customFormat="1">
+      <c r="P280" s="29"/>
+      <c r="Q280" s="29"/>
+      <c r="R280" s="29"/>
+    </row>
+    <row r="281" spans="16:18" s="30" customFormat="1">
+      <c r="P281" s="29"/>
+      <c r="Q281" s="29"/>
+      <c r="R281" s="29"/>
+    </row>
+    <row r="282" spans="16:18" s="30" customFormat="1">
+      <c r="P282" s="29"/>
+      <c r="Q282" s="29"/>
+      <c r="R282" s="29"/>
+    </row>
+    <row r="283" spans="16:18" s="30" customFormat="1">
+      <c r="P283" s="29"/>
+      <c r="Q283" s="29"/>
+      <c r="R283" s="29"/>
+    </row>
+    <row r="284" spans="16:18" s="30" customFormat="1">
+      <c r="P284" s="29"/>
+      <c r="Q284" s="29"/>
+      <c r="R284" s="29"/>
+    </row>
+    <row r="285" spans="16:18" s="30" customFormat="1">
+      <c r="P285" s="29"/>
+      <c r="Q285" s="29"/>
+      <c r="R285" s="29"/>
+    </row>
+    <row r="286" spans="16:18" s="30" customFormat="1">
+      <c r="P286" s="29"/>
+      <c r="Q286" s="29"/>
+      <c r="R286" s="29"/>
+    </row>
+    <row r="287" spans="16:18" s="30" customFormat="1">
+      <c r="P287" s="29"/>
+      <c r="Q287" s="29"/>
+      <c r="R287" s="29"/>
+    </row>
+    <row r="288" spans="16:18" s="30" customFormat="1">
+      <c r="P288" s="29"/>
+      <c r="Q288" s="29"/>
+      <c r="R288" s="29"/>
+    </row>
+    <row r="289" spans="16:18" s="30" customFormat="1">
+      <c r="P289" s="29"/>
+      <c r="Q289" s="29"/>
+      <c r="R289" s="29"/>
+    </row>
+    <row r="290" spans="16:18" s="30" customFormat="1">
+      <c r="P290" s="29"/>
+      <c r="Q290" s="29"/>
+      <c r="R290" s="29"/>
+    </row>
+    <row r="291" spans="16:18" s="30" customFormat="1">
+      <c r="P291" s="29"/>
+      <c r="Q291" s="29"/>
+      <c r="R291" s="29"/>
+    </row>
+    <row r="292" spans="16:18" s="30" customFormat="1">
+      <c r="P292" s="29"/>
+      <c r="Q292" s="29"/>
+      <c r="R292" s="29"/>
+    </row>
+    <row r="293" spans="16:18" s="30" customFormat="1">
+      <c r="P293" s="29"/>
+      <c r="Q293" s="29"/>
+      <c r="R293" s="29"/>
+    </row>
+    <row r="294" spans="16:18" s="30" customFormat="1">
+      <c r="P294" s="29"/>
+      <c r="Q294" s="29"/>
+      <c r="R294" s="29"/>
+    </row>
+    <row r="295" spans="16:18" s="30" customFormat="1">
+      <c r="P295" s="29"/>
+      <c r="Q295" s="29"/>
+      <c r="R295" s="29"/>
+    </row>
+    <row r="296" spans="16:18" s="30" customFormat="1">
+      <c r="P296" s="29"/>
+      <c r="Q296" s="29"/>
+      <c r="R296" s="29"/>
+    </row>
+    <row r="297" spans="16:18" s="30" customFormat="1">
+      <c r="P297" s="29"/>
+      <c r="Q297" s="29"/>
+      <c r="R297" s="29"/>
+    </row>
+    <row r="298" spans="16:18" s="30" customFormat="1">
+      <c r="P298" s="29"/>
+      <c r="Q298" s="29"/>
+      <c r="R298" s="29"/>
+    </row>
+    <row r="299" spans="16:18" s="30" customFormat="1">
+      <c r="P299" s="29"/>
+      <c r="Q299" s="29"/>
+      <c r="R299" s="29"/>
+    </row>
+    <row r="300" spans="16:18" s="30" customFormat="1">
+      <c r="P300" s="29"/>
+      <c r="Q300" s="29"/>
+      <c r="R300" s="29"/>
+    </row>
+    <row r="301" spans="16:18" s="30" customFormat="1">
+      <c r="P301" s="29"/>
+      <c r="Q301" s="29"/>
+      <c r="R301" s="29"/>
+    </row>
+    <row r="302" spans="16:18" s="30" customFormat="1">
+      <c r="P302" s="29"/>
+      <c r="Q302" s="29"/>
+      <c r="R302" s="29"/>
+    </row>
+    <row r="303" spans="16:18" s="30" customFormat="1">
+      <c r="P303" s="29"/>
+      <c r="Q303" s="29"/>
+      <c r="R303" s="29"/>
+    </row>
+    <row r="304" spans="16:18" s="30" customFormat="1">
+      <c r="P304" s="29"/>
+      <c r="Q304" s="29"/>
+      <c r="R304" s="29"/>
+    </row>
+    <row r="305" spans="16:18" s="30" customFormat="1">
+      <c r="P305" s="29"/>
+      <c r="Q305" s="29"/>
+      <c r="R305" s="29"/>
+    </row>
+    <row r="306" spans="16:18" s="30" customFormat="1">
+      <c r="P306" s="29"/>
+      <c r="Q306" s="29"/>
+      <c r="R306" s="29"/>
+    </row>
+    <row r="307" spans="16:18" s="30" customFormat="1">
+      <c r="P307" s="29"/>
+      <c r="Q307" s="29"/>
+      <c r="R307" s="29"/>
+    </row>
+    <row r="308" spans="16:18" s="30" customFormat="1">
+      <c r="P308" s="29"/>
+      <c r="Q308" s="29"/>
+      <c r="R308" s="29"/>
+    </row>
+    <row r="309" spans="16:18" s="30" customFormat="1">
+      <c r="P309" s="29"/>
+      <c r="Q309" s="29"/>
+      <c r="R309" s="29"/>
+    </row>
+    <row r="310" spans="16:18" s="30" customFormat="1">
+      <c r="P310" s="29"/>
+      <c r="Q310" s="29"/>
+      <c r="R310" s="29"/>
+    </row>
+    <row r="311" spans="16:18" s="30" customFormat="1">
+      <c r="P311" s="29"/>
+      <c r="Q311" s="29"/>
+      <c r="R311" s="29"/>
+    </row>
+    <row r="312" spans="16:18" s="30" customFormat="1">
+      <c r="P312" s="29"/>
+      <c r="Q312" s="29"/>
+      <c r="R312" s="29"/>
+    </row>
+    <row r="313" spans="16:18" s="30" customFormat="1">
+      <c r="P313" s="29"/>
+      <c r="Q313" s="29"/>
+      <c r="R313" s="29"/>
+    </row>
+    <row r="314" spans="16:18" s="30" customFormat="1">
+      <c r="P314" s="29"/>
+      <c r="Q314" s="29"/>
+      <c r="R314" s="29"/>
+    </row>
+    <row r="315" spans="16:18" s="30" customFormat="1">
+      <c r="P315" s="29"/>
+      <c r="Q315" s="29"/>
+      <c r="R315" s="29"/>
+    </row>
+    <row r="316" spans="16:18" s="30" customFormat="1">
+      <c r="P316" s="29"/>
+      <c r="Q316" s="29"/>
+      <c r="R316" s="29"/>
+    </row>
+    <row r="317" spans="16:18" s="30" customFormat="1">
+      <c r="P317" s="29"/>
+      <c r="Q317" s="29"/>
+      <c r="R317" s="29"/>
+    </row>
+    <row r="318" spans="16:18" s="30" customFormat="1">
+      <c r="P318" s="29"/>
+      <c r="Q318" s="29"/>
+      <c r="R318" s="29"/>
+    </row>
+    <row r="319" spans="16:18" s="30" customFormat="1">
+      <c r="P319" s="29"/>
+      <c r="Q319" s="29"/>
+      <c r="R319" s="29"/>
+    </row>
+    <row r="320" spans="16:18" s="30" customFormat="1">
+      <c r="P320" s="29"/>
+      <c r="Q320" s="29"/>
+      <c r="R320" s="29"/>
+    </row>
+    <row r="321" spans="16:18" s="30" customFormat="1">
+      <c r="P321" s="29"/>
+      <c r="Q321" s="29"/>
+      <c r="R321" s="29"/>
+    </row>
+    <row r="322" spans="16:18" s="30" customFormat="1">
+      <c r="P322" s="29"/>
+      <c r="Q322" s="29"/>
+      <c r="R322" s="29"/>
+    </row>
+    <row r="323" spans="16:18" s="30" customFormat="1">
+      <c r="P323" s="29"/>
+      <c r="Q323" s="29"/>
+      <c r="R323" s="29"/>
+    </row>
+    <row r="324" spans="16:18" s="30" customFormat="1">
+      <c r="P324" s="29"/>
+      <c r="Q324" s="29"/>
+      <c r="R324" s="29"/>
+    </row>
+    <row r="325" spans="16:18" s="30" customFormat="1">
+      <c r="P325" s="29"/>
+      <c r="Q325" s="29"/>
+      <c r="R325" s="29"/>
+    </row>
+    <row r="326" spans="16:18" s="30" customFormat="1">
+      <c r="P326" s="29"/>
+      <c r="Q326" s="29"/>
+      <c r="R326" s="29"/>
+    </row>
+    <row r="327" spans="16:18" s="30" customFormat="1">
+      <c r="P327" s="29"/>
+      <c r="Q327" s="29"/>
+      <c r="R327" s="29"/>
+    </row>
+    <row r="328" spans="16:18" s="30" customFormat="1">
+      <c r="P328" s="29"/>
+      <c r="Q328" s="29"/>
+      <c r="R328" s="29"/>
+    </row>
+    <row r="329" spans="16:18" s="30" customFormat="1">
+      <c r="P329" s="29"/>
+      <c r="Q329" s="29"/>
+      <c r="R329" s="29"/>
+    </row>
+    <row r="330" spans="16:18" s="30" customFormat="1">
+      <c r="P330" s="29"/>
+      <c r="Q330" s="29"/>
+      <c r="R330" s="29"/>
+    </row>
+    <row r="331" spans="16:18" s="30" customFormat="1">
+      <c r="P331" s="29"/>
+      <c r="Q331" s="29"/>
+      <c r="R331" s="29"/>
+    </row>
+    <row r="332" spans="16:18" s="30" customFormat="1">
+      <c r="P332" s="29"/>
+      <c r="Q332" s="29"/>
+      <c r="R332" s="29"/>
+    </row>
+    <row r="333" spans="16:18" s="30" customFormat="1">
+      <c r="P333" s="29"/>
+      <c r="Q333" s="29"/>
+      <c r="R333" s="29"/>
+    </row>
+    <row r="334" spans="16:18" s="30" customFormat="1">
+      <c r="P334" s="29"/>
+      <c r="Q334" s="29"/>
+      <c r="R334" s="29"/>
+    </row>
+    <row r="335" spans="16:18" s="30" customFormat="1">
+      <c r="P335" s="29"/>
+      <c r="Q335" s="29"/>
+      <c r="R335" s="29"/>
+    </row>
+    <row r="336" spans="16:18" s="30" customFormat="1">
+      <c r="P336" s="29"/>
+      <c r="Q336" s="29"/>
+      <c r="R336" s="29"/>
+    </row>
+    <row r="337" spans="16:18" s="30" customFormat="1">
+      <c r="P337" s="29"/>
+      <c r="Q337" s="29"/>
+      <c r="R337" s="29"/>
+    </row>
+    <row r="338" spans="16:18" s="30" customFormat="1">
+      <c r="P338" s="29"/>
+      <c r="Q338" s="29"/>
+      <c r="R338" s="29"/>
+    </row>
+    <row r="339" spans="16:18" s="30" customFormat="1">
+      <c r="P339" s="29"/>
+      <c r="Q339" s="29"/>
+      <c r="R339" s="29"/>
+    </row>
+    <row r="340" spans="16:18" s="30" customFormat="1">
+      <c r="P340" s="29"/>
+      <c r="Q340" s="29"/>
+      <c r="R340" s="29"/>
+    </row>
+    <row r="341" spans="16:18" s="30" customFormat="1">
+      <c r="P341" s="29"/>
+      <c r="Q341" s="29"/>
+      <c r="R341" s="29"/>
+    </row>
+    <row r="342" spans="16:18" s="30" customFormat="1">
+      <c r="P342" s="29"/>
+      <c r="Q342" s="29"/>
+      <c r="R342" s="29"/>
+    </row>
+    <row r="343" spans="16:18" s="30" customFormat="1">
+      <c r="P343" s="29"/>
+      <c r="Q343" s="29"/>
+      <c r="R343" s="29"/>
+    </row>
+    <row r="344" spans="16:18" s="30" customFormat="1">
+      <c r="P344" s="29"/>
+      <c r="Q344" s="29"/>
+      <c r="R344" s="29"/>
+    </row>
+    <row r="345" spans="16:18" s="30" customFormat="1">
+      <c r="P345" s="29"/>
+      <c r="Q345" s="29"/>
+      <c r="R345" s="29"/>
+    </row>
+    <row r="346" spans="16:18" s="30" customFormat="1">
+      <c r="P346" s="29"/>
+      <c r="Q346" s="29"/>
+      <c r="R346" s="29"/>
+    </row>
+    <row r="347" spans="16:18" s="30" customFormat="1">
+      <c r="P347" s="29"/>
+      <c r="Q347" s="29"/>
+      <c r="R347" s="29"/>
+    </row>
+    <row r="348" spans="16:18" s="30" customFormat="1">
+      <c r="P348" s="29"/>
+      <c r="Q348" s="29"/>
+      <c r="R348" s="29"/>
+    </row>
+    <row r="349" spans="16:18" s="30" customFormat="1">
+      <c r="P349" s="29"/>
+      <c r="Q349" s="29"/>
+      <c r="R349" s="29"/>
+    </row>
+    <row r="350" spans="16:18" s="30" customFormat="1">
+      <c r="P350" s="29"/>
+      <c r="Q350" s="29"/>
+      <c r="R350" s="29"/>
+    </row>
+    <row r="351" spans="16:18" s="30" customFormat="1">
+      <c r="P351" s="29"/>
+      <c r="Q351" s="29"/>
+      <c r="R351" s="29"/>
+    </row>
+    <row r="352" spans="16:18" s="30" customFormat="1">
+      <c r="P352" s="29"/>
+      <c r="Q352" s="29"/>
+      <c r="R352" s="29"/>
+    </row>
+    <row r="353" spans="16:18" s="30" customFormat="1">
+      <c r="P353" s="29"/>
+      <c r="Q353" s="29"/>
+      <c r="R353" s="29"/>
+    </row>
+    <row r="354" spans="16:18" s="30" customFormat="1">
+      <c r="P354" s="29"/>
+      <c r="Q354" s="29"/>
+      <c r="R354" s="29"/>
+    </row>
+    <row r="355" spans="16:18" s="30" customFormat="1">
+      <c r="P355" s="29"/>
+      <c r="Q355" s="29"/>
+      <c r="R355" s="29"/>
+    </row>
+    <row r="356" spans="16:18" s="30" customFormat="1">
+      <c r="P356" s="29"/>
+      <c r="Q356" s="29"/>
+      <c r="R356" s="29"/>
+    </row>
+    <row r="357" spans="16:18" s="30" customFormat="1">
+      <c r="P357" s="29"/>
+      <c r="Q357" s="29"/>
+      <c r="R357" s="29"/>
+    </row>
+    <row r="358" spans="16:18" s="30" customFormat="1">
+      <c r="P358" s="29"/>
+      <c r="Q358" s="29"/>
+      <c r="R358" s="29"/>
+    </row>
+    <row r="359" spans="16:18" s="30" customFormat="1">
+      <c r="P359" s="29"/>
+      <c r="Q359" s="29"/>
+      <c r="R359" s="29"/>
+    </row>
+    <row r="360" spans="16:18" s="30" customFormat="1">
+      <c r="P360" s="29"/>
+      <c r="Q360" s="29"/>
+      <c r="R360" s="29"/>
+    </row>
+    <row r="361" spans="16:18" s="30" customFormat="1">
+      <c r="P361" s="29"/>
+      <c r="Q361" s="29"/>
+      <c r="R361" s="29"/>
+    </row>
+    <row r="362" spans="16:18" s="30" customFormat="1">
+      <c r="P362" s="29"/>
+      <c r="Q362" s="29"/>
+      <c r="R362" s="29"/>
+    </row>
+    <row r="363" spans="16:18" s="30" customFormat="1">
+      <c r="P363" s="29"/>
+      <c r="Q363" s="29"/>
+      <c r="R363" s="29"/>
+    </row>
+    <row r="364" spans="16:18" s="30" customFormat="1">
+      <c r="P364" s="29"/>
+      <c r="Q364" s="29"/>
+      <c r="R364" s="29"/>
+    </row>
+    <row r="365" spans="16:18" s="30" customFormat="1">
+      <c r="P365" s="29"/>
+      <c r="Q365" s="29"/>
+      <c r="R365" s="29"/>
+    </row>
+    <row r="366" spans="16:18" s="30" customFormat="1">
+      <c r="P366" s="29"/>
+      <c r="Q366" s="29"/>
+      <c r="R366" s="29"/>
+    </row>
+    <row r="367" spans="16:18" s="30" customFormat="1">
+      <c r="P367" s="29"/>
+      <c r="Q367" s="29"/>
+      <c r="R367" s="29"/>
+    </row>
+    <row r="368" spans="16:18" s="30" customFormat="1">
+      <c r="P368" s="29"/>
+      <c r="Q368" s="29"/>
+      <c r="R368" s="29"/>
+    </row>
+    <row r="369" spans="16:18" s="30" customFormat="1">
+      <c r="P369" s="29"/>
+      <c r="Q369" s="29"/>
+      <c r="R369" s="29"/>
+    </row>
+    <row r="370" spans="16:18" s="30" customFormat="1">
+      <c r="P370" s="29"/>
+      <c r="Q370" s="29"/>
+      <c r="R370" s="29"/>
+    </row>
+    <row r="371" spans="16:18" s="30" customFormat="1">
+      <c r="P371" s="29"/>
+      <c r="Q371" s="29"/>
+      <c r="R371" s="29"/>
+    </row>
+    <row r="372" spans="16:18" s="30" customFormat="1">
+      <c r="P372" s="29"/>
+      <c r="Q372" s="29"/>
+      <c r="R372" s="29"/>
+    </row>
+    <row r="373" spans="16:18" s="30" customFormat="1">
+      <c r="P373" s="29"/>
+      <c r="Q373" s="29"/>
+      <c r="R373" s="29"/>
+    </row>
+    <row r="374" spans="16:18" s="30" customFormat="1">
+      <c r="P374" s="29"/>
+      <c r="Q374" s="29"/>
+      <c r="R374" s="29"/>
+    </row>
+    <row r="375" spans="16:18" s="30" customFormat="1">
+      <c r="P375" s="29"/>
+      <c r="Q375" s="29"/>
+      <c r="R375" s="29"/>
+    </row>
+    <row r="376" spans="16:18" s="30" customFormat="1">
+      <c r="P376" s="29"/>
+      <c r="Q376" s="29"/>
+      <c r="R376" s="29"/>
+    </row>
+    <row r="377" spans="16:18" s="30" customFormat="1">
+      <c r="P377" s="29"/>
+      <c r="Q377" s="29"/>
+      <c r="R377" s="29"/>
+    </row>
+    <row r="378" spans="16:18" s="30" customFormat="1">
+      <c r="P378" s="29"/>
+      <c r="Q378" s="29"/>
+      <c r="R378" s="29"/>
+    </row>
+    <row r="379" spans="16:18" s="30" customFormat="1">
+      <c r="P379" s="29"/>
+      <c r="Q379" s="29"/>
+      <c r="R379" s="29"/>
+    </row>
+    <row r="380" spans="16:18" s="30" customFormat="1">
+      <c r="P380" s="29"/>
+      <c r="Q380" s="29"/>
+      <c r="R380" s="29"/>
+    </row>
+    <row r="381" spans="16:18" s="30" customFormat="1">
+      <c r="P381" s="29"/>
+      <c r="Q381" s="29"/>
+      <c r="R381" s="29"/>
+    </row>
+    <row r="382" spans="16:18" s="30" customFormat="1">
+      <c r="P382" s="29"/>
+      <c r="Q382" s="29"/>
+      <c r="R382" s="29"/>
+    </row>
+    <row r="383" spans="16:18" s="30" customFormat="1">
+      <c r="P383" s="29"/>
+      <c r="Q383" s="29"/>
+      <c r="R383" s="29"/>
+    </row>
+    <row r="384" spans="16:18" s="30" customFormat="1">
+      <c r="P384" s="29"/>
+      <c r="Q384" s="29"/>
+      <c r="R384" s="29"/>
+    </row>
+    <row r="385" spans="16:18" s="30" customFormat="1">
+      <c r="P385" s="29"/>
+      <c r="Q385" s="29"/>
+      <c r="R385" s="29"/>
+    </row>
+    <row r="386" spans="16:18" s="30" customFormat="1">
+      <c r="P386" s="29"/>
+      <c r="Q386" s="29"/>
+      <c r="R386" s="29"/>
+    </row>
+    <row r="387" spans="16:18" s="30" customFormat="1">
+      <c r="P387" s="29"/>
+      <c r="Q387" s="29"/>
+      <c r="R387" s="29"/>
+    </row>
+    <row r="388" spans="16:18" s="30" customFormat="1">
+      <c r="P388" s="29"/>
+      <c r="Q388" s="29"/>
+      <c r="R388" s="29"/>
+    </row>
+    <row r="389" spans="16:18" s="30" customFormat="1">
+      <c r="P389" s="29"/>
+      <c r="Q389" s="29"/>
+      <c r="R389" s="29"/>
+    </row>
+    <row r="390" spans="16:18" s="30" customFormat="1">
+      <c r="P390" s="29"/>
+      <c r="Q390" s="29"/>
+      <c r="R390" s="29"/>
+    </row>
+    <row r="391" spans="16:18" s="30" customFormat="1">
+      <c r="P391" s="29"/>
+      <c r="Q391" s="29"/>
+      <c r="R391" s="29"/>
+    </row>
+    <row r="392" spans="16:18" s="30" customFormat="1">
+      <c r="P392" s="29"/>
+      <c r="Q392" s="29"/>
+      <c r="R392" s="29"/>
+    </row>
+    <row r="393" spans="16:18" s="30" customFormat="1">
+      <c r="P393" s="29"/>
+      <c r="Q393" s="29"/>
+      <c r="R393" s="29"/>
+    </row>
+    <row r="394" spans="16:18" s="30" customFormat="1">
+      <c r="P394" s="29"/>
+      <c r="Q394" s="29"/>
+      <c r="R394" s="29"/>
+    </row>
+    <row r="395" spans="16:18" s="30" customFormat="1">
+      <c r="P395" s="29"/>
+      <c r="Q395" s="29"/>
+      <c r="R395" s="29"/>
+    </row>
+    <row r="396" spans="16:18" s="30" customFormat="1">
+      <c r="P396" s="29"/>
+      <c r="Q396" s="29"/>
+      <c r="R396" s="29"/>
+    </row>
+    <row r="397" spans="16:18" s="30" customFormat="1">
+      <c r="P397" s="29"/>
+      <c r="Q397" s="29"/>
+      <c r="R397" s="29"/>
+    </row>
+    <row r="398" spans="16:18" s="30" customFormat="1">
+      <c r="P398" s="29"/>
+      <c r="Q398" s="29"/>
+      <c r="R398" s="29"/>
+    </row>
+    <row r="399" spans="16:18" s="30" customFormat="1">
+      <c r="P399" s="29"/>
+      <c r="Q399" s="29"/>
+      <c r="R399" s="29"/>
+    </row>
+    <row r="400" spans="16:18" s="30" customFormat="1">
+      <c r="P400" s="29"/>
+      <c r="Q400" s="29"/>
+      <c r="R400" s="29"/>
+    </row>
+    <row r="401" spans="16:18" s="30" customFormat="1">
+      <c r="P401" s="29"/>
+      <c r="Q401" s="29"/>
+      <c r="R401" s="29"/>
+    </row>
+    <row r="402" spans="16:18" s="30" customFormat="1">
+      <c r="P402" s="29"/>
+      <c r="Q402" s="29"/>
+      <c r="R402" s="29"/>
+    </row>
+    <row r="403" spans="16:18" s="30" customFormat="1">
+      <c r="P403" s="29"/>
+      <c r="Q403" s="29"/>
+      <c r="R403" s="29"/>
+    </row>
+    <row r="404" spans="16:18" s="30" customFormat="1">
+      <c r="P404" s="29"/>
+      <c r="Q404" s="29"/>
+      <c r="R404" s="29"/>
+    </row>
+    <row r="405" spans="16:18" s="30" customFormat="1">
+      <c r="P405" s="29"/>
+      <c r="Q405" s="29"/>
+      <c r="R405" s="29"/>
+    </row>
+    <row r="406" spans="16:18" s="30" customFormat="1">
+      <c r="P406" s="29"/>
+      <c r="Q406" s="29"/>
+      <c r="R406" s="29"/>
+    </row>
+    <row r="407" spans="16:18" s="30" customFormat="1">
+      <c r="P407" s="29"/>
+      <c r="Q407" s="29"/>
+      <c r="R407" s="29"/>
+    </row>
+    <row r="408" spans="16:18" s="30" customFormat="1">
+      <c r="P408" s="29"/>
+      <c r="Q408" s="29"/>
+      <c r="R408" s="29"/>
+    </row>
+    <row r="409" spans="16:18" s="30" customFormat="1">
+      <c r="P409" s="29"/>
+      <c r="Q409" s="29"/>
+      <c r="R409" s="29"/>
+    </row>
+    <row r="410" spans="16:18" s="30" customFormat="1">
+      <c r="P410" s="29"/>
+      <c r="Q410" s="29"/>
+      <c r="R410" s="29"/>
+    </row>
+    <row r="411" spans="16:18" s="30" customFormat="1">
+      <c r="P411" s="29"/>
+      <c r="Q411" s="29"/>
+      <c r="R411" s="29"/>
+    </row>
+    <row r="412" spans="16:18" s="30" customFormat="1">
+      <c r="P412" s="29"/>
+      <c r="Q412" s="29"/>
+      <c r="R412" s="29"/>
+    </row>
+    <row r="413" spans="16:18" s="30" customFormat="1">
+      <c r="P413" s="29"/>
+      <c r="Q413" s="29"/>
+      <c r="R413" s="29"/>
+    </row>
+    <row r="414" spans="16:18" s="30" customFormat="1">
+      <c r="P414" s="29"/>
+      <c r="Q414" s="29"/>
+      <c r="R414" s="29"/>
+    </row>
+    <row r="415" spans="16:18" s="30" customFormat="1">
+      <c r="P415" s="29"/>
+      <c r="Q415" s="29"/>
+      <c r="R415" s="29"/>
+    </row>
+    <row r="416" spans="16:18" s="30" customFormat="1">
+      <c r="P416" s="29"/>
+      <c r="Q416" s="29"/>
+      <c r="R416" s="29"/>
+    </row>
+    <row r="417" spans="16:18" s="30" customFormat="1">
+      <c r="P417" s="29"/>
+      <c r="Q417" s="29"/>
+      <c r="R417" s="29"/>
+    </row>
+    <row r="418" spans="16:18" s="30" customFormat="1">
+      <c r="P418" s="29"/>
+      <c r="Q418" s="29"/>
+      <c r="R418" s="29"/>
+    </row>
+    <row r="419" spans="16:18" s="30" customFormat="1">
+      <c r="P419" s="29"/>
+      <c r="Q419" s="29"/>
+      <c r="R419" s="29"/>
+    </row>
+    <row r="420" spans="16:18" s="30" customFormat="1">
+      <c r="P420" s="29"/>
+      <c r="Q420" s="29"/>
+      <c r="R420" s="29"/>
+    </row>
+    <row r="421" spans="16:18" s="30" customFormat="1">
+      <c r="P421" s="29"/>
+      <c r="Q421" s="29"/>
+      <c r="R421" s="29"/>
+    </row>
+    <row r="422" spans="16:18" s="30" customFormat="1">
+      <c r="P422" s="29"/>
+      <c r="Q422" s="29"/>
+      <c r="R422" s="29"/>
+    </row>
+    <row r="423" spans="16:18" s="30" customFormat="1">
+      <c r="P423" s="29"/>
+      <c r="Q423" s="29"/>
+      <c r="R423" s="29"/>
+    </row>
+    <row r="424" spans="16:18" s="30" customFormat="1">
+      <c r="P424" s="29"/>
+      <c r="Q424" s="29"/>
+      <c r="R424" s="29"/>
+    </row>
+    <row r="425" spans="16:18" s="30" customFormat="1">
+      <c r="P425" s="29"/>
+      <c r="Q425" s="29"/>
+      <c r="R425" s="29"/>
+    </row>
+    <row r="426" spans="16:18" s="30" customFormat="1">
+      <c r="P426" s="29"/>
+      <c r="Q426" s="29"/>
+      <c r="R426" s="29"/>
+    </row>
+    <row r="427" spans="16:18" s="30" customFormat="1">
+      <c r="P427" s="29"/>
+      <c r="Q427" s="29"/>
+      <c r="R427" s="29"/>
+    </row>
+    <row r="428" spans="16:18" s="30" customFormat="1">
+      <c r="P428" s="29"/>
+      <c r="Q428" s="29"/>
+      <c r="R428" s="29"/>
+    </row>
+    <row r="429" spans="16:18" s="30" customFormat="1">
+      <c r="P429" s="29"/>
+      <c r="Q429" s="29"/>
+      <c r="R429" s="29"/>
+    </row>
+    <row r="430" spans="16:18" s="30" customFormat="1">
+      <c r="P430" s="29"/>
+      <c r="Q430" s="29"/>
+      <c r="R430" s="29"/>
+    </row>
+    <row r="431" spans="16:18" s="30" customFormat="1">
+      <c r="P431" s="29"/>
+      <c r="Q431" s="29"/>
+      <c r="R431" s="29"/>
+    </row>
+    <row r="432" spans="16:18" s="30" customFormat="1">
+      <c r="P432" s="29"/>
+      <c r="Q432" s="29"/>
+      <c r="R432" s="29"/>
+    </row>
+    <row r="433" spans="16:18" s="30" customFormat="1">
+      <c r="P433" s="29"/>
+      <c r="Q433" s="29"/>
+      <c r="R433" s="29"/>
+    </row>
+    <row r="434" spans="16:18" s="30" customFormat="1">
+      <c r="P434" s="29"/>
+      <c r="Q434" s="29"/>
+      <c r="R434" s="29"/>
+    </row>
+    <row r="435" spans="16:18" s="30" customFormat="1">
+      <c r="P435" s="29"/>
+      <c r="Q435" s="29"/>
+      <c r="R435" s="29"/>
+    </row>
+    <row r="436" spans="16:18" s="30" customFormat="1">
+      <c r="P436" s="29"/>
+      <c r="Q436" s="29"/>
+      <c r="R436" s="29"/>
+    </row>
+    <row r="437" spans="16:18" s="30" customFormat="1">
+      <c r="P437" s="29"/>
+      <c r="Q437" s="29"/>
+      <c r="R437" s="29"/>
+    </row>
+    <row r="438" spans="16:18" s="30" customFormat="1">
+      <c r="P438" s="29"/>
+      <c r="Q438" s="29"/>
+      <c r="R438" s="29"/>
+    </row>
+    <row r="439" spans="16:18" s="30" customFormat="1">
+      <c r="P439" s="29"/>
+      <c r="Q439" s="29"/>
+      <c r="R439" s="29"/>
+    </row>
+    <row r="440" spans="16:18" s="30" customFormat="1">
+      <c r="P440" s="29"/>
+      <c r="Q440" s="29"/>
+      <c r="R440" s="29"/>
+    </row>
+    <row r="441" spans="16:18" s="30" customFormat="1">
+      <c r="P441" s="29"/>
+      <c r="Q441" s="29"/>
+      <c r="R441" s="29"/>
+    </row>
+    <row r="442" spans="16:18" s="30" customFormat="1">
+      <c r="P442" s="29"/>
+      <c r="Q442" s="29"/>
+      <c r="R442" s="29"/>
+    </row>
+    <row r="443" spans="16:18" s="30" customFormat="1">
+      <c r="P443" s="29"/>
+      <c r="Q443" s="29"/>
+      <c r="R443" s="29"/>
+    </row>
+    <row r="444" spans="16:18" s="30" customFormat="1">
+      <c r="P444" s="29"/>
+      <c r="Q444" s="29"/>
+      <c r="R444" s="29"/>
+    </row>
+    <row r="445" spans="16:18" s="30" customFormat="1">
+      <c r="P445" s="29"/>
+      <c r="Q445" s="29"/>
+      <c r="R445" s="29"/>
+    </row>
+    <row r="446" spans="16:18" s="30" customFormat="1">
+      <c r="P446" s="29"/>
+      <c r="Q446" s="29"/>
+      <c r="R446" s="29"/>
+    </row>
+    <row r="447" spans="16:18" s="30" customFormat="1">
+      <c r="P447" s="29"/>
+      <c r="Q447" s="29"/>
+      <c r="R447" s="29"/>
+    </row>
+    <row r="448" spans="16:18" s="30" customFormat="1">
+      <c r="P448" s="29"/>
+      <c r="Q448" s="29"/>
+      <c r="R448" s="29"/>
+    </row>
+    <row r="449" spans="16:18" s="30" customFormat="1">
+      <c r="P449" s="29"/>
+      <c r="Q449" s="29"/>
+      <c r="R449" s="29"/>
+    </row>
+    <row r="450" spans="16:18" s="30" customFormat="1">
+      <c r="P450" s="29"/>
+      <c r="Q450" s="29"/>
+      <c r="R450" s="29"/>
+    </row>
+    <row r="451" spans="16:18" s="30" customFormat="1">
+      <c r="P451" s="29"/>
+      <c r="Q451" s="29"/>
+      <c r="R451" s="29"/>
+    </row>
+    <row r="452" spans="16:18" s="30" customFormat="1">
+      <c r="P452" s="29"/>
+      <c r="Q452" s="29"/>
+      <c r="R452" s="29"/>
+    </row>
+    <row r="453" spans="16:18" s="30" customFormat="1">
+      <c r="P453" s="29"/>
+      <c r="Q453" s="29"/>
+      <c r="R453" s="29"/>
+    </row>
+    <row r="454" spans="16:18" s="30" customFormat="1">
+      <c r="P454" s="29"/>
+      <c r="Q454" s="29"/>
+      <c r="R454" s="29"/>
+    </row>
+    <row r="455" spans="16:18" s="30" customFormat="1">
+      <c r="P455" s="29"/>
+      <c r="Q455" s="29"/>
+      <c r="R455" s="29"/>
+    </row>
+    <row r="456" spans="16:18" s="30" customFormat="1">
+      <c r="P456" s="29"/>
+      <c r="Q456" s="29"/>
+      <c r="R456" s="29"/>
+    </row>
+    <row r="457" spans="16:18" s="30" customFormat="1">
+      <c r="P457" s="29"/>
+      <c r="Q457" s="29"/>
+      <c r="R457" s="29"/>
+    </row>
+    <row r="458" spans="16:18" s="30" customFormat="1">
+      <c r="P458" s="29"/>
+      <c r="Q458" s="29"/>
+      <c r="R458" s="29"/>
+    </row>
+    <row r="459" spans="16:18" s="30" customFormat="1">
+      <c r="P459" s="29"/>
+      <c r="Q459" s="29"/>
+      <c r="R459" s="29"/>
+    </row>
+    <row r="460" spans="16:18" s="30" customFormat="1">
+      <c r="P460" s="29"/>
+      <c r="Q460" s="29"/>
+      <c r="R460" s="29"/>
+    </row>
+    <row r="461" spans="16:18" s="30" customFormat="1">
+      <c r="P461" s="29"/>
+      <c r="Q461" s="29"/>
+      <c r="R461" s="29"/>
+    </row>
+    <row r="462" spans="16:18" s="30" customFormat="1">
+      <c r="P462" s="29"/>
+      <c r="Q462" s="29"/>
+      <c r="R462" s="29"/>
+    </row>
+    <row r="463" spans="16:18" s="30" customFormat="1">
+      <c r="P463" s="29"/>
+      <c r="Q463" s="29"/>
+      <c r="R463" s="29"/>
+    </row>
+    <row r="464" spans="16:18" s="30" customFormat="1">
+      <c r="P464" s="29"/>
+      <c r="Q464" s="29"/>
+      <c r="R464" s="29"/>
+    </row>
+    <row r="465" spans="16:18" s="30" customFormat="1">
+      <c r="P465" s="29"/>
+      <c r="Q465" s="29"/>
+      <c r="R465" s="29"/>
+    </row>
+    <row r="466" spans="16:18" s="30" customFormat="1">
+      <c r="P466" s="29"/>
+      <c r="Q466" s="29"/>
+      <c r="R466" s="29"/>
+    </row>
+    <row r="467" spans="16:18" s="30" customFormat="1">
+      <c r="P467" s="29"/>
+      <c r="Q467" s="29"/>
+      <c r="R467" s="29"/>
+    </row>
+    <row r="468" spans="16:18" s="30" customFormat="1">
+      <c r="P468" s="29"/>
+      <c r="Q468" s="29"/>
+      <c r="R468" s="29"/>
+    </row>
+    <row r="469" spans="16:18" s="30" customFormat="1">
+      <c r="P469" s="29"/>
+      <c r="Q469" s="29"/>
+      <c r="R469" s="29"/>
+    </row>
+    <row r="470" spans="16:18" s="30" customFormat="1">
+      <c r="P470" s="29"/>
+      <c r="Q470" s="29"/>
+      <c r="R470" s="29"/>
+    </row>
+    <row r="471" spans="16:18" s="30" customFormat="1">
+      <c r="P471" s="29"/>
+      <c r="Q471" s="29"/>
+      <c r="R471" s="29"/>
+    </row>
+    <row r="472" spans="16:18" s="30" customFormat="1">
+      <c r="P472" s="29"/>
+      <c r="Q472" s="29"/>
+      <c r="R472" s="29"/>
+    </row>
+    <row r="473" spans="16:18" s="30" customFormat="1">
+      <c r="P473" s="29"/>
+      <c r="Q473" s="29"/>
+      <c r="R473" s="29"/>
+    </row>
+    <row r="474" spans="16:18" s="30" customFormat="1">
+      <c r="P474" s="29"/>
+      <c r="Q474" s="29"/>
+      <c r="R474" s="29"/>
+    </row>
+    <row r="475" spans="16:18" s="30" customFormat="1">
+      <c r="P475" s="29"/>
+      <c r="Q475" s="29"/>
+      <c r="R475" s="29"/>
+    </row>
+    <row r="476" spans="16:18" s="30" customFormat="1">
+      <c r="P476" s="29"/>
+      <c r="Q476" s="29"/>
+      <c r="R476" s="29"/>
+    </row>
+    <row r="477" spans="16:18" s="30" customFormat="1">
+      <c r="P477" s="29"/>
+      <c r="Q477" s="29"/>
+      <c r="R477" s="29"/>
+    </row>
+    <row r="478" spans="16:18" s="30" customFormat="1">
+      <c r="P478" s="29"/>
+      <c r="Q478" s="29"/>
+      <c r="R478" s="29"/>
+    </row>
+    <row r="479" spans="16:18" s="30" customFormat="1">
+      <c r="P479" s="29"/>
+      <c r="Q479" s="29"/>
+      <c r="R479" s="29"/>
+    </row>
+    <row r="480" spans="16:18" s="30" customFormat="1">
+      <c r="P480" s="29"/>
+      <c r="Q480" s="29"/>
+      <c r="R480" s="29"/>
+    </row>
+    <row r="481" spans="16:18" s="30" customFormat="1">
+      <c r="P481" s="29"/>
+      <c r="Q481" s="29"/>
+      <c r="R481" s="29"/>
+    </row>
+    <row r="482" spans="16:18" s="30" customFormat="1">
+      <c r="P482" s="29"/>
+      <c r="Q482" s="29"/>
+      <c r="R482" s="29"/>
+    </row>
+    <row r="483" spans="16:18" s="30" customFormat="1">
+      <c r="P483" s="29"/>
+      <c r="Q483" s="29"/>
+      <c r="R483" s="29"/>
+    </row>
+    <row r="484" spans="16:18" s="30" customFormat="1">
+      <c r="P484" s="29"/>
+      <c r="Q484" s="29"/>
+      <c r="R484" s="29"/>
+    </row>
+    <row r="485" spans="16:18" s="30" customFormat="1">
+      <c r="P485" s="29"/>
+      <c r="Q485" s="29"/>
+      <c r="R485" s="29"/>
+    </row>
+    <row r="486" spans="16:18" s="30" customFormat="1">
+      <c r="P486" s="29"/>
+      <c r="Q486" s="29"/>
+      <c r="R486" s="29"/>
+    </row>
+    <row r="487" spans="16:18" s="30" customFormat="1">
+      <c r="P487" s="29"/>
+      <c r="Q487" s="29"/>
+      <c r="R487" s="29"/>
+    </row>
+    <row r="488" spans="16:18" s="30" customFormat="1">
+      <c r="P488" s="29"/>
+      <c r="Q488" s="29"/>
+      <c r="R488" s="29"/>
+    </row>
+    <row r="489" spans="16:18" s="30" customFormat="1">
+      <c r="P489" s="29"/>
+      <c r="Q489" s="29"/>
+      <c r="R489" s="29"/>
+    </row>
+    <row r="490" spans="16:18" s="30" customFormat="1">
+      <c r="P490" s="29"/>
+      <c r="Q490" s="29"/>
+      <c r="R490" s="29"/>
+    </row>
+    <row r="491" spans="16:18" s="30" customFormat="1">
+      <c r="P491" s="29"/>
+      <c r="Q491" s="29"/>
+      <c r="R491" s="29"/>
+    </row>
+    <row r="492" spans="16:18" s="30" customFormat="1">
+      <c r="P492" s="29"/>
+      <c r="Q492" s="29"/>
+      <c r="R492" s="29"/>
+    </row>
+    <row r="493" spans="16:18" s="30" customFormat="1">
+      <c r="P493" s="29"/>
+      <c r="Q493" s="29"/>
+      <c r="R493" s="29"/>
+    </row>
+    <row r="494" spans="16:18" s="30" customFormat="1">
+      <c r="P494" s="29"/>
+      <c r="Q494" s="29"/>
+      <c r="R494" s="29"/>
+    </row>
+    <row r="495" spans="16:18" s="30" customFormat="1">
+      <c r="P495" s="29"/>
+      <c r="Q495" s="29"/>
+      <c r="R495" s="29"/>
+    </row>
+    <row r="496" spans="16:18" s="30" customFormat="1">
+      <c r="P496" s="29"/>
+      <c r="Q496" s="29"/>
+      <c r="R496" s="29"/>
+    </row>
+    <row r="497" spans="16:18" s="30" customFormat="1">
+      <c r="P497" s="29"/>
+      <c r="Q497" s="29"/>
+      <c r="R497" s="29"/>
+    </row>
+    <row r="498" spans="16:18" s="30" customFormat="1">
+      <c r="P498" s="29"/>
+      <c r="Q498" s="29"/>
+      <c r="R498" s="29"/>
+    </row>
+    <row r="499" spans="16:18" s="30" customFormat="1">
+      <c r="P499" s="29"/>
+      <c r="Q499" s="29"/>
+      <c r="R499" s="29"/>
+    </row>
+    <row r="500" spans="16:18" s="30" customFormat="1">
+      <c r="P500" s="29"/>
+      <c r="Q500" s="29"/>
+      <c r="R500" s="29"/>
+    </row>
+    <row r="501" spans="16:18" s="30" customFormat="1">
+      <c r="P501" s="29"/>
+      <c r="Q501" s="29"/>
+      <c r="R501" s="29"/>
+    </row>
+    <row r="502" spans="16:18" s="30" customFormat="1">
+      <c r="P502" s="29"/>
+      <c r="Q502" s="29"/>
+      <c r="R502" s="29"/>
+    </row>
+    <row r="503" spans="16:18" s="30" customFormat="1">
+      <c r="P503" s="29"/>
+      <c r="Q503" s="29"/>
+      <c r="R503" s="29"/>
+    </row>
+    <row r="504" spans="16:18" s="30" customFormat="1">
+      <c r="P504" s="29"/>
+      <c r="Q504" s="29"/>
+      <c r="R504" s="29"/>
+    </row>
+    <row r="505" spans="16:18" s="30" customFormat="1">
+      <c r="P505" s="29"/>
+      <c r="Q505" s="29"/>
+      <c r="R505" s="29"/>
+    </row>
+    <row r="506" spans="16:18" s="30" customFormat="1">
+      <c r="P506" s="29"/>
+      <c r="Q506" s="29"/>
+      <c r="R506" s="29"/>
+    </row>
+    <row r="507" spans="16:18" s="30" customFormat="1">
+      <c r="P507" s="29"/>
+      <c r="Q507" s="29"/>
+      <c r="R507" s="29"/>
+    </row>
+    <row r="508" spans="16:18" s="30" customFormat="1">
+      <c r="P508" s="29"/>
+      <c r="Q508" s="29"/>
+      <c r="R508" s="29"/>
+    </row>
+    <row r="509" spans="16:18" s="30" customFormat="1">
+      <c r="P509" s="29"/>
+      <c r="Q509" s="29"/>
+      <c r="R509" s="29"/>
+    </row>
+    <row r="510" spans="16:18" s="30" customFormat="1">
+      <c r="P510" s="29"/>
+      <c r="Q510" s="29"/>
+      <c r="R510" s="29"/>
+    </row>
+    <row r="511" spans="16:18" s="30" customFormat="1">
+      <c r="P511" s="29"/>
+      <c r="Q511" s="29"/>
+      <c r="R511" s="29"/>
+    </row>
+    <row r="512" spans="16:18" s="30" customFormat="1">
+      <c r="P512" s="29"/>
+      <c r="Q512" s="29"/>
+      <c r="R512" s="29"/>
+    </row>
+    <row r="513" spans="16:18" s="30" customFormat="1">
+      <c r="P513" s="29"/>
+      <c r="Q513" s="29"/>
+      <c r="R513" s="29"/>
+    </row>
+    <row r="514" spans="16:18" s="30" customFormat="1">
+      <c r="P514" s="29"/>
+      <c r="Q514" s="29"/>
+      <c r="R514" s="29"/>
+    </row>
+    <row r="515" spans="16:18" s="30" customFormat="1">
+      <c r="P515" s="29"/>
+      <c r="Q515" s="29"/>
+      <c r="R515" s="29"/>
+    </row>
+    <row r="516" spans="16:18" s="30" customFormat="1">
+      <c r="P516" s="29"/>
+      <c r="Q516" s="29"/>
+      <c r="R516" s="29"/>
+    </row>
+    <row r="517" spans="16:18" s="30" customFormat="1">
+      <c r="P517" s="29"/>
+      <c r="Q517" s="29"/>
+      <c r="R517" s="29"/>
+    </row>
+    <row r="518" spans="16:18" s="30" customFormat="1">
+      <c r="P518" s="29"/>
+      <c r="Q518" s="29"/>
+      <c r="R518" s="29"/>
+    </row>
+    <row r="519" spans="16:18" s="30" customFormat="1">
+      <c r="P519" s="29"/>
+      <c r="Q519" s="29"/>
+      <c r="R519" s="29"/>
+    </row>
+    <row r="520" spans="16:18" s="30" customFormat="1">
+      <c r="P520" s="29"/>
+      <c r="Q520" s="29"/>
+      <c r="R520" s="29"/>
+    </row>
+    <row r="521" spans="16:18" s="30" customFormat="1">
+      <c r="P521" s="29"/>
+      <c r="Q521" s="29"/>
+      <c r="R521" s="29"/>
+    </row>
+    <row r="522" spans="16:18" s="30" customFormat="1">
+      <c r="P522" s="29"/>
+      <c r="Q522" s="29"/>
+      <c r="R522" s="29"/>
+    </row>
+    <row r="523" spans="16:18" s="30" customFormat="1">
+      <c r="P523" s="29"/>
+      <c r="Q523" s="29"/>
+      <c r="R523" s="29"/>
+    </row>
+    <row r="524" spans="16:18" s="30" customFormat="1">
+      <c r="P524" s="29"/>
+      <c r="Q524" s="29"/>
+      <c r="R524" s="29"/>
+    </row>
+    <row r="525" spans="16:18" s="30" customFormat="1">
+      <c r="P525" s="29"/>
+      <c r="Q525" s="29"/>
+      <c r="R525" s="29"/>
+    </row>
+    <row r="526" spans="16:18" s="30" customFormat="1">
+      <c r="P526" s="29"/>
+      <c r="Q526" s="29"/>
+      <c r="R526" s="29"/>
+    </row>
+    <row r="527" spans="16:18" s="30" customFormat="1">
+      <c r="P527" s="29"/>
+      <c r="Q527" s="29"/>
+      <c r="R527" s="29"/>
+    </row>
+    <row r="528" spans="16:18" s="30" customFormat="1">
+      <c r="P528" s="29"/>
+      <c r="Q528" s="29"/>
+      <c r="R528" s="29"/>
+    </row>
+    <row r="529" spans="16:18" s="30" customFormat="1">
+      <c r="P529" s="29"/>
+      <c r="Q529" s="29"/>
+      <c r="R529" s="29"/>
+    </row>
+    <row r="530" spans="16:18" s="30" customFormat="1">
+      <c r="P530" s="29"/>
+      <c r="Q530" s="29"/>
+      <c r="R530" s="29"/>
+    </row>
+    <row r="531" spans="16:18" s="30" customFormat="1">
+      <c r="P531" s="29"/>
+      <c r="Q531" s="29"/>
+      <c r="R531" s="29"/>
+    </row>
+    <row r="532" spans="16:18" s="30" customFormat="1">
+      <c r="P532" s="29"/>
+      <c r="Q532" s="29"/>
+      <c r="R532" s="29"/>
+    </row>
+    <row r="533" spans="16:18" s="30" customFormat="1">
+      <c r="P533" s="29"/>
+      <c r="Q533" s="29"/>
+      <c r="R533" s="29"/>
+    </row>
+    <row r="534" spans="16:18" s="30" customFormat="1">
+      <c r="P534" s="29"/>
+      <c r="Q534" s="29"/>
+      <c r="R534" s="29"/>
+    </row>
+    <row r="535" spans="16:18" s="30" customFormat="1">
+      <c r="P535" s="29"/>
+      <c r="Q535" s="29"/>
+      <c r="R535" s="29"/>
+    </row>
+    <row r="536" spans="16:18" s="30" customFormat="1">
+      <c r="P536" s="29"/>
+      <c r="Q536" s="29"/>
+      <c r="R536" s="29"/>
+    </row>
+    <row r="537" spans="16:18" s="30" customFormat="1">
+      <c r="P537" s="29"/>
+      <c r="Q537" s="29"/>
+      <c r="R537" s="29"/>
+    </row>
+    <row r="538" spans="16:18" s="30" customFormat="1">
+      <c r="P538" s="29"/>
+      <c r="Q538" s="29"/>
+      <c r="R538" s="29"/>
+    </row>
+    <row r="539" spans="16:18" s="30" customFormat="1">
+      <c r="P539" s="29"/>
+      <c r="Q539" s="29"/>
+      <c r="R539" s="29"/>
+    </row>
+    <row r="540" spans="16:18" s="30" customFormat="1">
+      <c r="P540" s="29"/>
+      <c r="Q540" s="29"/>
+      <c r="R540" s="29"/>
+    </row>
+    <row r="541" spans="16:18" s="30" customFormat="1">
+      <c r="P541" s="29"/>
+      <c r="Q541" s="29"/>
+      <c r="R541" s="29"/>
+    </row>
+    <row r="542" spans="16:18" s="30" customFormat="1">
+      <c r="P542" s="29"/>
+      <c r="Q542" s="29"/>
+      <c r="R542" s="29"/>
+    </row>
+    <row r="543" spans="16:18" s="30" customFormat="1">
+      <c r="P543" s="29"/>
+      <c r="Q543" s="29"/>
+      <c r="R543" s="29"/>
+    </row>
+    <row r="544" spans="16:18" s="30" customFormat="1">
+      <c r="P544" s="29"/>
+      <c r="Q544" s="29"/>
+      <c r="R544" s="29"/>
+    </row>
+    <row r="545" spans="16:18" s="30" customFormat="1">
+      <c r="P545" s="29"/>
+      <c r="Q545" s="29"/>
+      <c r="R545" s="29"/>
+    </row>
+    <row r="546" spans="16:18" s="30" customFormat="1">
+      <c r="P546" s="29"/>
+      <c r="Q546" s="29"/>
+      <c r="R546" s="29"/>
+    </row>
+    <row r="547" spans="16:18" s="30" customFormat="1">
+      <c r="P547" s="29"/>
+      <c r="Q547" s="29"/>
+      <c r="R547" s="29"/>
+    </row>
+    <row r="548" spans="16:18" s="30" customFormat="1">
+      <c r="P548" s="29"/>
+      <c r="Q548" s="29"/>
+      <c r="R548" s="29"/>
+    </row>
+    <row r="549" spans="16:18" s="30" customFormat="1">
+      <c r="P549" s="29"/>
+      <c r="Q549" s="29"/>
+      <c r="R549" s="29"/>
+    </row>
+    <row r="550" spans="16:18" s="30" customFormat="1">
+      <c r="P550" s="29"/>
+      <c r="Q550" s="29"/>
+      <c r="R550" s="29"/>
+    </row>
+    <row r="551" spans="16:18" s="30" customFormat="1">
+      <c r="P551" s="29"/>
+      <c r="Q551" s="29"/>
+      <c r="R551" s="29"/>
+    </row>
+    <row r="552" spans="16:18" s="30" customFormat="1">
+      <c r="P552" s="29"/>
+      <c r="Q552" s="29"/>
+      <c r="R552" s="29"/>
+    </row>
+    <row r="553" spans="16:18" s="30" customFormat="1">
+      <c r="P553" s="29"/>
+      <c r="Q553" s="29"/>
+      <c r="R553" s="29"/>
+    </row>
+    <row r="554" spans="16:18" s="30" customFormat="1">
+      <c r="P554" s="29"/>
+      <c r="Q554" s="29"/>
+      <c r="R554" s="29"/>
+    </row>
+    <row r="555" spans="16:18" s="30" customFormat="1">
+      <c r="P555" s="29"/>
+      <c r="Q555" s="29"/>
+      <c r="R555" s="29"/>
+    </row>
+    <row r="556" spans="16:18" s="30" customFormat="1">
+      <c r="P556" s="29"/>
+      <c r="Q556" s="29"/>
+      <c r="R556" s="29"/>
+    </row>
+    <row r="557" spans="16:18" s="30" customFormat="1">
+      <c r="P557" s="29"/>
+      <c r="Q557" s="29"/>
+      <c r="R557" s="29"/>
+    </row>
+    <row r="558" spans="16:18" s="30" customFormat="1">
+      <c r="P558" s="29"/>
+      <c r="Q558" s="29"/>
+      <c r="R558" s="29"/>
+    </row>
+    <row r="559" spans="16:18" s="30" customFormat="1">
+      <c r="P559" s="29"/>
+      <c r="Q559" s="29"/>
+      <c r="R559" s="29"/>
+    </row>
+    <row r="560" spans="16:18" s="30" customFormat="1">
+      <c r="P560" s="29"/>
+      <c r="Q560" s="29"/>
+      <c r="R560" s="29"/>
+    </row>
+    <row r="561" spans="16:18" s="30" customFormat="1">
+      <c r="P561" s="29"/>
+      <c r="Q561" s="29"/>
+      <c r="R561" s="29"/>
+    </row>
+    <row r="562" spans="16:18" s="30" customFormat="1">
+      <c r="P562" s="29"/>
+      <c r="Q562" s="29"/>
+      <c r="R562" s="29"/>
+    </row>
+    <row r="563" spans="16:18" s="30" customFormat="1">
+      <c r="P563" s="29"/>
+      <c r="Q563" s="29"/>
+      <c r="R563" s="29"/>
+    </row>
+    <row r="564" spans="16:18" s="30" customFormat="1">
+      <c r="P564" s="29"/>
+      <c r="Q564" s="29"/>
+      <c r="R564" s="29"/>
+    </row>
+    <row r="565" spans="16:18" s="30" customFormat="1">
+      <c r="P565" s="29"/>
+      <c r="Q565" s="29"/>
+      <c r="R565" s="29"/>
+    </row>
+    <row r="566" spans="16:18" s="30" customFormat="1">
+      <c r="P566" s="29"/>
+      <c r="Q566" s="29"/>
+      <c r="R566" s="29"/>
+    </row>
+    <row r="567" spans="16:18" s="30" customFormat="1">
+      <c r="P567" s="29"/>
+      <c r="Q567" s="29"/>
+      <c r="R567" s="29"/>
+    </row>
+    <row r="568" spans="16:18" s="30" customFormat="1">
+      <c r="P568" s="29"/>
+      <c r="Q568" s="29"/>
+      <c r="R568" s="29"/>
+    </row>
+    <row r="569" spans="16:18" s="30" customFormat="1">
+      <c r="P569" s="29"/>
+      <c r="Q569" s="29"/>
+      <c r="R569" s="29"/>
+    </row>
+    <row r="570" spans="16:18" s="30" customFormat="1">
+      <c r="P570" s="29"/>
+      <c r="Q570" s="29"/>
+      <c r="R570" s="29"/>
+    </row>
+    <row r="571" spans="16:18" s="30" customFormat="1">
+      <c r="P571" s="29"/>
+      <c r="Q571" s="29"/>
+      <c r="R571" s="29"/>
+    </row>
+    <row r="572" spans="16:18" s="30" customFormat="1">
+      <c r="P572" s="29"/>
+      <c r="Q572" s="29"/>
+      <c r="R572" s="29"/>
+    </row>
+    <row r="573" spans="16:18" s="30" customFormat="1">
+      <c r="P573" s="29"/>
+      <c r="Q573" s="29"/>
+      <c r="R573" s="29"/>
+    </row>
+    <row r="574" spans="16:18" s="30" customFormat="1">
+      <c r="P574" s="29"/>
+      <c r="Q574" s="29"/>
+      <c r="R574" s="29"/>
+    </row>
+    <row r="575" spans="16:18" s="30" customFormat="1">
+      <c r="P575" s="29"/>
+      <c r="Q575" s="29"/>
+      <c r="R575" s="29"/>
+    </row>
+    <row r="576" spans="16:18" s="30" customFormat="1">
+      <c r="P576" s="29"/>
+      <c r="Q576" s="29"/>
+      <c r="R576" s="29"/>
+    </row>
+    <row r="577" spans="16:18" s="30" customFormat="1">
+      <c r="P577" s="29"/>
+      <c r="Q577" s="29"/>
+      <c r="R577" s="29"/>
+    </row>
+    <row r="578" spans="16:18" s="30" customFormat="1">
+      <c r="P578" s="29"/>
+      <c r="Q578" s="29"/>
+      <c r="R578" s="29"/>
+    </row>
+    <row r="579" spans="16:18" s="30" customFormat="1">
+      <c r="P579" s="29"/>
+      <c r="Q579" s="29"/>
+      <c r="R579" s="29"/>
+    </row>
+    <row r="580" spans="16:18" s="30" customFormat="1">
+      <c r="P580" s="29"/>
+      <c r="Q580" s="29"/>
+      <c r="R580" s="29"/>
+    </row>
+    <row r="581" spans="16:18" s="30" customFormat="1">
+      <c r="P581" s="29"/>
+      <c r="Q581" s="29"/>
+      <c r="R581" s="29"/>
+    </row>
+    <row r="582" spans="16:18" s="30" customFormat="1">
+      <c r="P582" s="29"/>
+      <c r="Q582" s="29"/>
+      <c r="R582" s="29"/>
+    </row>
+    <row r="583" spans="16:18" s="30" customFormat="1">
+      <c r="P583" s="29"/>
+      <c r="Q583" s="29"/>
+      <c r="R583" s="29"/>
+    </row>
+    <row r="584" spans="16:18" s="30" customFormat="1">
+      <c r="P584" s="29"/>
+      <c r="Q584" s="29"/>
+      <c r="R584" s="29"/>
+    </row>
+    <row r="585" spans="16:18" s="30" customFormat="1">
+      <c r="P585" s="29"/>
+      <c r="Q585" s="29"/>
+      <c r="R585" s="29"/>
+    </row>
+    <row r="586" spans="16:18" s="30" customFormat="1">
+      <c r="P586" s="29"/>
+      <c r="Q586" s="29"/>
+      <c r="R586" s="29"/>
+    </row>
+    <row r="587" spans="16:18" s="30" customFormat="1">
+      <c r="P587" s="29"/>
+      <c r="Q587" s="29"/>
+      <c r="R587" s="29"/>
+    </row>
+    <row r="588" spans="16:18" s="30" customFormat="1">
+      <c r="P588" s="29"/>
+      <c r="Q588" s="29"/>
+      <c r="R588" s="29"/>
+    </row>
+    <row r="589" spans="16:18" s="30" customFormat="1">
+      <c r="P589" s="29"/>
+      <c r="Q589" s="29"/>
+      <c r="R589" s="29"/>
+    </row>
+    <row r="590" spans="16:18" s="30" customFormat="1">
+      <c r="P590" s="29"/>
+      <c r="Q590" s="29"/>
+      <c r="R590" s="29"/>
+    </row>
+    <row r="591" spans="16:18" s="30" customFormat="1">
+      <c r="P591" s="29"/>
+      <c r="Q591" s="29"/>
+      <c r="R591" s="29"/>
+    </row>
+    <row r="592" spans="16:18" s="30" customFormat="1">
+      <c r="P592" s="29"/>
+      <c r="Q592" s="29"/>
+      <c r="R592" s="29"/>
+    </row>
+    <row r="593" spans="16:18" s="30" customFormat="1">
+      <c r="P593" s="29"/>
+      <c r="Q593" s="29"/>
+      <c r="R593" s="29"/>
+    </row>
+    <row r="594" spans="16:18" s="30" customFormat="1">
+      <c r="P594" s="29"/>
+      <c r="Q594" s="29"/>
+      <c r="R594" s="29"/>
+    </row>
+    <row r="595" spans="16:18" s="30" customFormat="1">
+      <c r="P595" s="29"/>
+      <c r="Q595" s="29"/>
+      <c r="R595" s="29"/>
+    </row>
+    <row r="596" spans="16:18" s="30" customFormat="1">
+      <c r="P596" s="29"/>
+      <c r="Q596" s="29"/>
+      <c r="R596" s="29"/>
+    </row>
+    <row r="597" spans="16:18" s="30" customFormat="1">
+      <c r="P597" s="29"/>
+      <c r="Q597" s="29"/>
+      <c r="R597" s="29"/>
+    </row>
+    <row r="598" spans="16:18" s="30" customFormat="1">
+      <c r="P598" s="29"/>
+      <c r="Q598" s="29"/>
+      <c r="R598" s="29"/>
+    </row>
+    <row r="599" spans="16:18" s="30" customFormat="1">
+      <c r="P599" s="29"/>
+      <c r="Q599" s="29"/>
+      <c r="R599" s="29"/>
+    </row>
+    <row r="600" spans="16:18" s="30" customFormat="1">
+      <c r="P600" s="29"/>
+      <c r="Q600" s="29"/>
+      <c r="R600" s="29"/>
+    </row>
+    <row r="601" spans="16:18" s="30" customFormat="1">
+      <c r="P601" s="29"/>
+      <c r="Q601" s="29"/>
+      <c r="R601" s="29"/>
+    </row>
+    <row r="602" spans="16:18" s="30" customFormat="1">
+      <c r="P602" s="29"/>
+      <c r="Q602" s="29"/>
+      <c r="R602" s="29"/>
+    </row>
+    <row r="603" spans="16:18" s="30" customFormat="1">
+      <c r="P603" s="29"/>
+      <c r="Q603" s="29"/>
+      <c r="R603" s="29"/>
+    </row>
+    <row r="604" spans="16:18" s="30" customFormat="1">
+      <c r="P604" s="29"/>
+      <c r="Q604" s="29"/>
+      <c r="R604" s="29"/>
+    </row>
+    <row r="605" spans="16:18" s="30" customFormat="1">
+      <c r="P605" s="29"/>
+      <c r="Q605" s="29"/>
+      <c r="R605" s="29"/>
+    </row>
+    <row r="606" spans="16:18" s="30" customFormat="1">
+      <c r="P606" s="29"/>
+      <c r="Q606" s="29"/>
+      <c r="R606" s="29"/>
+    </row>
+    <row r="607" spans="16:18" s="30" customFormat="1">
+      <c r="P607" s="29"/>
+      <c r="Q607" s="29"/>
+      <c r="R607" s="29"/>
+    </row>
+    <row r="608" spans="16:18" s="30" customFormat="1">
+      <c r="P608" s="29"/>
+      <c r="Q608" s="29"/>
+      <c r="R608" s="29"/>
+    </row>
+    <row r="609" spans="16:18" s="30" customFormat="1">
+      <c r="P609" s="29"/>
+      <c r="Q609" s="29"/>
+      <c r="R609" s="29"/>
+    </row>
+    <row r="610" spans="16:18" s="30" customFormat="1">
+      <c r="P610" s="29"/>
+      <c r="Q610" s="29"/>
+      <c r="R610" s="29"/>
+    </row>
+    <row r="611" spans="16:18" s="30" customFormat="1">
+      <c r="P611" s="29"/>
+      <c r="Q611" s="29"/>
+      <c r="R611" s="29"/>
+    </row>
+    <row r="612" spans="16:18" s="30" customFormat="1">
+      <c r="P612" s="29"/>
+      <c r="Q612" s="29"/>
+      <c r="R612" s="29"/>
+    </row>
+    <row r="613" spans="16:18" s="30" customFormat="1">
+      <c r="P613" s="29"/>
+      <c r="Q613" s="29"/>
+      <c r="R613" s="29"/>
+    </row>
+    <row r="614" spans="16:18" s="30" customFormat="1">
+      <c r="P614" s="29"/>
+      <c r="Q614" s="29"/>
+      <c r="R614" s="29"/>
+    </row>
+    <row r="615" spans="16:18" s="30" customFormat="1">
+      <c r="P615" s="29"/>
+      <c r="Q615" s="29"/>
+      <c r="R615" s="29"/>
+    </row>
+    <row r="616" spans="16:18" s="30" customFormat="1">
+      <c r="P616" s="29"/>
+      <c r="Q616" s="29"/>
+      <c r="R616" s="29"/>
+    </row>
+    <row r="617" spans="16:18" s="30" customFormat="1">
+      <c r="P617" s="29"/>
+      <c r="Q617" s="29"/>
+      <c r="R617" s="29"/>
+    </row>
+    <row r="618" spans="16:18" s="30" customFormat="1">
+      <c r="P618" s="29"/>
+      <c r="Q618" s="29"/>
+      <c r="R618" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="N3:R3"/>
+  <mergeCells count="3">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L7 Q7:S7">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISTEXT(L7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations xWindow="869" yWindow="520" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Describe the impact in term of Quality, Cost, Content or Schedule_x000a_and, whenever possible, in term of business" sqref="H7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Provide detailed business impact whenever possible" sqref="I7:J7"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="K7"/>
-  </dataValidations>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.39370078740157477" footer="0.39370078740157477"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -4596,18 +6460,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4630,26 +6494,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778D69A3-9556-4E8A-A717-E7EBB5FB0CCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ba255ac2-fd5b-4104-a101-e408bc1f9d8d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fbe74e55-0217-4527-95a2-e1c7c1a871e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9F01BEA-79B3-45B1-AB4C-8816A194BA4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778D69A3-9556-4E8A-A717-E7EBB5FB0CCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ba255ac2-fd5b-4104-a101-e408bc1f9d8d"/>
-    <ds:schemaRef ds:uri="fbe74e55-0217-4527-95a2-e1c7c1a871e3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>